--- a/SourceCode/2023/August2023/Lavanya/RPA Challenge_Deployment/Deployment sheet.xlsx
+++ b/SourceCode/2023/August2023/Lavanya/RPA Challenge_Deployment/Deployment sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumanth\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumanth\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2023\August2023\Lavanya\RPA Challenge_Deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F5FEA9-9DEA-49FE-93CF-D1986AA6D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56356DE6-D549-485B-B303-C705DA8CBCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E08A283D-3455-4C75-ACE2-FC6FC8DFA7A4}"/>
+    <workbookView xWindow="3540" yWindow="1575" windowWidth="15375" windowHeight="7875" xr2:uid="{E08A283D-3455-4C75-ACE2-FC6FC8DFA7A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>RoboticEnterpriseFramework</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
 </sst>
 </file>
@@ -151,10 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0582A907-8372-4F11-B435-2C2347DC5951}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
